--- a/medicine/Mort/The_Bridge/The_Bridge.xlsx
+++ b/medicine/Mort/The_Bridge/The_Bridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Bridge (Le Pont) est un film documentaire réalisé par Eric Steel qui raconte comment quelques personnes se sont suicidées en se jetant du pont du Golden Gate de San Francisco en 2004. Le film s'inspire d'un article de Tad Friend intitulé Jumpers (Sauteurs), publié dans The New Yorker en 2003[1]. Il a suscité de nombreuses critiques[Lesquelles ?] lors de sa sortie en février 2007.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Bridge (Le Pont) est un film documentaire réalisé par Eric Steel qui raconte comment quelques personnes se sont suicidées en se jetant du pont du Golden Gate de San Francisco en 2004. Le film s'inspire d'un article de Tad Friend intitulé Jumpers (Sauteurs), publié dans The New Yorker en 2003. Il a suscité de nombreuses critiques[Lesquelles ?] lors de sa sortie en février 2007.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre : The Bridge
 Réalisation : Eric Steel
